--- a/Random_C101_0.5.dat_10_0.3_[0.5, 0.3, 0.1]_100_CL1.xlsx
+++ b/Random_C101_0.5.dat_10_0.3_[0.5, 0.3, 0.1]_100_CL1.xlsx
@@ -428,14 +428,14 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C1" t="n">
-        <v>5.490796089172363</v>
+        <v>41.685387134552</v>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>[[[[0, [5, 3, 4, 1, 2, 7]], [5, []], [3, []], [4, []], [1, []], [2, []], [7, []]], [[0, [10, 8, 9, 6]], [10, []], [8, []], [9, []], [6, []]]], []]</t>
+          <t>[[[[0, [3, 4, 5, 2, 1]], [5, []], [3, []], [4, []], [1, []], [2, []], [9, [9]]], [[0, [6, 8, 10]], [7, [7]], [6, []], [8, []], [10, []]]], [[[7, [7]]], [[9, [9]]]]]</t>
         </is>
       </c>
     </row>
